--- a/results/I3_N5_M2_T30_C150_DepLowerLeft_s2_P6_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepLowerLeft_s2_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1302.07187996735</v>
+        <v>771.8111941728971</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.29303357727107</v>
+        <v>51.81119417289708</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.72978832722616</v>
+        <v>4.825983008672948</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.6086347173128</v>
+        <v>4.825983008672948</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>832.9799999999918</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>420.92</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,45 +595,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -711,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -813,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -915,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17.27021167277385</v>
+        <v>18.39136528268722</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.34207471385628</v>
+        <v>3.132299474826759</v>
       </c>
     </row>
     <row r="6">
@@ -939,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.67685125555192</v>
+        <v>16.16637066025754</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1024,118 +991,6 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>238.8099999999994</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>229.55</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1115,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>231.4649999999997</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1126,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>231.7699999999995</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1137,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>234.8949999999998</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>197.8350000000009</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>195.15</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1170,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>194.995000000001</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>196.35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1192,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>195.4250000000009</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>36.22000000000843</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1214,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>39.59000000001168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>32.85500000000997</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1236,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>40.99000000001072</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>41.05</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>93.39000000000036</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>93.47500000000036</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>91.28000000000037</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1291,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>91.81500000000037</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>93.57500000000036</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>82.84000000000916</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>81.0650000000124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>70.7800000000107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1346,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>80.64500000001145</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1357,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>84.8100000000109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>82.84000000000916</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>81.0650000000124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1390,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>70.7800000000107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1401,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>80.64500000001145</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>84.8100000000109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>238.8099999999987</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>229.55</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>231.4649999999991</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1456,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>231.7699999999988</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>234.8949999999992</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1714,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>88.80999999999869</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1580,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>79.55</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1591,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>81.46499999999912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1602,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>81.76999999999884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1613,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>84.89499999999924</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1816,7 +1671,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1682,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1838,7 +1693,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1849,7 +1704,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1860,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1737,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +1759,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1926,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.125</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1937,7 +1792,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>5.005</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1948,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1959,7 +1814,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>4.27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1970,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>12.78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -1981,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>19.015</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -1992,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>11.29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -2003,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>18.235</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +1869,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>14.1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -2025,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +1891,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +1902,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +1913,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2130,94 +1985,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
